--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -135,7 +135,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -153,10 +153,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
@@ -167,7 +167,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2</v>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imię</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuzanna błaszczak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ktokolwiek ktokolwiek</t>
   </si>
 </sst>
 </file>
@@ -132,10 +141,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -150,6 +159,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -161,6 +173,9 @@
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -171,6 +186,9 @@
       </c>
       <c r="C3" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -144,7 +144,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">label</t>
   </si>
   <si>
-    <t xml:space="preserve">imię</t>
+    <t xml:space="preserve">dane</t>
   </si>
   <si>
     <t xml:space="preserve">Zuzanna błaszczak</t>
@@ -144,7 +144,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -34,10 +34,19 @@
     <t xml:space="preserve">dane</t>
   </si>
   <si>
+    <t xml:space="preserve">opis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zuzanna błaszczak</t>
   </si>
   <si>
+    <t xml:space="preserve">opis opis</t>
+  </si>
+  <si>
     <t xml:space="preserve">ktokolwiek ktokolwiek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccoewniorvewmcsof</t>
   </si>
 </sst>
 </file>
@@ -141,10 +150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -162,6 +171,9 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -174,7 +186,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -188,7 +203,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -37,16 +37,100 @@
     <t xml:space="preserve">opis</t>
   </si>
   <si>
-    <t xml:space="preserve">Zuzanna błaszczak</t>
+    <t xml:space="preserve">Błaszczak Zuzanna</t>
   </si>
   <si>
     <t xml:space="preserve">opis opis</t>
   </si>
   <si>
-    <t xml:space="preserve">ktokolwiek ktokolwiek</t>
+    <t xml:space="preserve">Bogucka Karolina</t>
   </si>
   <si>
     <t xml:space="preserve">ccoewniorvewmcsof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryg Kinga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fferw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grzechnik Aleksandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wefdghj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kacprzak Zofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iktutegrfedc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kopańska Marta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unyrtefvcds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosyło Jagoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unyretfcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kowalik Radosław</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uytgewd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kustra Mikołaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uytbewrdx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magdziak Zelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiu5j4htgr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miszczuk Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iujhyrwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prażmowska Sandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kjuyrte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajkowska Zuzanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ujyhevcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rakusa-Suszczewska Zuzanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uyntrbgv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadczuk Justyna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuyrtb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szumlas Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unyrgfv</t>
   </si>
 </sst>
 </file>
@@ -150,10 +234,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -207,6 +291,244 @@
       </c>
       <c r="E3" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>654</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>543</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4332</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4300</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>7000</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">opis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pietro</t>
   </si>
   <si>
     <t xml:space="preserve">Błaszczak Zuzanna</t>
@@ -234,10 +237,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -258,6 +261,9 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -270,10 +276,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,10 +296,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -304,10 +316,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,10 +336,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,10 +356,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,10 +376,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,10 +396,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,10 +416,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,10 +436,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,10 +456,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,10 +476,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,10 +496,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,10 +516,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,10 +536,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,10 +556,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,10 +576,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Błaszczak Zuzanna</t>
   </si>
   <si>
-    <t xml:space="preserve">opis opis</t>
+    <t xml:space="preserve">&lt;br&gt;opis&lt;/br&gt; opis</t>
   </si>
   <si>
     <t xml:space="preserve">Bogucka Karolina</t>
@@ -240,7 +240,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Błaszczak Zuzanna</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;br&gt;opis&lt;/br&gt; opis</t>
+    <t xml:space="preserve">&lt;b&gt;opis&lt;/b&gt; opis</t>
   </si>
   <si>
     <t xml:space="preserve">Bogucka Karolina</t>
@@ -240,7 +240,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -240,7 +240,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Błaszczak Zuzanna</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;opis&lt;/b&gt; opis</t>
+    <t xml:space="preserve">&lt;b&gt;opis&lt;/b&gt;&lt;br&gt;&lt;br&gt; Ulice na Ursynowie są cichymi świadkami i ważnymi bohaterami wielu ciekawych historii. To na tych ulicach rozwijała się konspiracja, to tutaj za PRL-u gubili się taksówkarze, tutaj rodzili się ludzie ważni dla dziejów Polski, a jednak patronami tychże ulic nieraz zostają osoby przypadkowe. Nawet numery bloków są nadawane według kolejności ich powstawania. Po Ursynowie krążą opowieści ważne, ale i zabawne — wystarczy nadstawić ucha. Niestety łączy je zazwyczaj to, że są mało znane, nawet dla mieszkańców i mieszkanek, a może wręcz szczególnie dla nich. &lt;br&gt;Aby prześledzić koleje losu osobliwych ursynowskich ulic, należy zapytać kogoś, kto z tą dzielnicą związany jest od dawna; kogoś, kto instynktownie wyłapuje urywki zasłyszanych opowieści i szuka tak długo, aż elementy nie wskoczą na swoje miejsce jak puzzle. Mój rozmówca, Adam Hohendorff, to polonista w jednym z ursynowskich liceów, były działacz „Solidarności” i pasjonat historii. Pamięta czasy, gdy Ursynów dopiero się budował, wie najlepiej, gdzie na Ursynowie tętni życie i dlaczego dzielnica wygląda tak, a nie inaczej. W jego opowieściach Ursynów odziera się z pozoru „sypialni Warszawy” i jawi się jako miejsce urokliwe, pełne tajemnic czekających niecierpliwie na odkrycie.</t>
   </si>
   <si>
     <t xml:space="preserve">Bogucka Karolina</t>
@@ -240,7 +240,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Błaszczak Zuzanna</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;opis&lt;/b&gt;&lt;br&gt;&lt;br&gt; Ulice na Ursynowie są cichymi świadkami i ważnymi bohaterami wielu ciekawych historii. To na tych ulicach rozwijała się konspiracja, to tutaj za PRL-u gubili się taksówkarze, tutaj rodzili się ludzie ważni dla dziejów Polski, a jednak patronami tychże ulic nieraz zostają osoby przypadkowe. Nawet numery bloków są nadawane według kolejności ich powstawania. Po Ursynowie krążą opowieści ważne, ale i zabawne — wystarczy nadstawić ucha. Niestety łączy je zazwyczaj to, że są mało znane, nawet dla mieszkańców i mieszkanek, a może wręcz szczególnie dla nich. &lt;br&gt;Aby prześledzić koleje losu osobliwych ursynowskich ulic, należy zapytać kogoś, kto z tą dzielnicą związany jest od dawna; kogoś, kto instynktownie wyłapuje urywki zasłyszanych opowieści i szuka tak długo, aż elementy nie wskoczą na swoje miejsce jak puzzle. Mój rozmówca, Adam Hohendorff, to polonista w jednym z ursynowskich liceów, były działacz „Solidarności” i pasjonat historii. Pamięta czasy, gdy Ursynów dopiero się budował, wie najlepiej, gdzie na Ursynowie tętni życie i dlaczego dzielnica wygląda tak, a nie inaczej. W jego opowieściach Ursynów odziera się z pozoru „sypialni Warszawy” i jawi się jako miejsce urokliwe, pełne tajemnic czekających niecierpliwie na odkrycie.</t>
+    <t xml:space="preserve">&lt;b&gt;opis&lt;/b&gt;&lt;br&gt;&lt;br&gt; &lt;p&gt;Ulice na Ursynowie są cichymi świadkami i ważnymi bohaterami wielu ciekawych historii. To na tych ulicach rozwijała się konspiracja, to tutaj za PRL-u gubili się taksówkarze, tutaj rodzili się ludzie ważni dla dziejów Polski, a jednak patronami tychże ulic nieraz zostają osoby przypadkowe. Nawet numery bloków są nadawane według kolejności ich powstawania. Po Ursynowie krążą opowieści ważne, ale i zabawne — wystarczy nadstawić ucha. Niestety łączy je zazwyczaj to, że są mało znane, nawet dla mieszkańców i mieszkanek, a może wręcz szczególnie dla nich.&lt;/p&gt; &lt;br&gt;&lt;p&gt;Aby prześledzić koleje losu osobliwych ursynowskich ulic, należy zapytać kogoś, kto z tą dzielnicą związany jest od dawna; kogoś, kto instynktownie wyłapuje urywki zasłyszanych opowieści i szuka tak długo, aż elementy nie wskoczą na swoje miejsce jak puzzle. Mój rozmówca, Adam Hohendorff, to polonista w jednym z ursynowskich liceów, były działacz „Solidarności” i pasjonat historii. Pamięta czasy, gdy Ursynów dopiero się budował, wie najlepiej, gdzie na Ursynowie tętni życie i dlaczego dzielnica wygląda tak, a nie inaczej. W jego opowieściach Ursynów odziera się z pozoru „sypialni Warszawy” i jawi się jako miejsce urokliwe, pełne tajemnic czekających niecierpliwie na odkrycie.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Bogucka Karolina</t>
@@ -240,7 +240,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -43,61 +43,87 @@
     <t xml:space="preserve">Błaszczak Zuzanna</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;opis&lt;/b&gt;&lt;br&gt;&lt;br&gt; &lt;p&gt;Ulice na Ursynowie są cichymi świadkami i ważnymi bohaterami wielu ciekawych historii. To na tych ulicach rozwijała się konspiracja, to tutaj za PRL-u gubili się taksówkarze, tutaj rodzili się ludzie ważni dla dziejów Polski, a jednak patronami tychże ulic nieraz zostają osoby przypadkowe. Nawet numery bloków są nadawane według kolejności ich powstawania. Po Ursynowie krążą opowieści ważne, ale i zabawne — wystarczy nadstawić ucha. Niestety łączy je zazwyczaj to, że są mało znane, nawet dla mieszkańców i mieszkanek, a może wręcz szczególnie dla nich.&lt;/p&gt; &lt;br&gt;&lt;p&gt;Aby prześledzić koleje losu osobliwych ursynowskich ulic, należy zapytać kogoś, kto z tą dzielnicą związany jest od dawna; kogoś, kto instynktownie wyłapuje urywki zasłyszanych opowieści i szuka tak długo, aż elementy nie wskoczą na swoje miejsce jak puzzle. Mój rozmówca, Adam Hohendorff, to polonista w jednym z ursynowskich liceów, były działacz „Solidarności” i pasjonat historii. Pamięta czasy, gdy Ursynów dopiero się budował, wie najlepiej, gdzie na Ursynowie tętni życie i dlaczego dzielnica wygląda tak, a nie inaczej. W jego opowieściach Ursynów odziera się z pozoru „sypialni Warszawy” i jawi się jako miejsce urokliwe, pełne tajemnic czekających niecierpliwie na odkrycie.&lt;/p&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Ursynowskie ulice&lt;/b&gt;&lt;br&gt;&lt;br&gt; &lt;p&gt;Ulice na Ursynowie są cichymi świadkami i ważnymi bohaterami wielu ciekawych historii. To na tych ulicach rozwijała się konspiracja, to tutaj za PRL-u gubili się taksówkarze, tutaj rodzili się ludzie ważni dla dziejów Polski, a jednak patronami tychże ulic nieraz zostają osoby przypadkowe. Nawet numery bloków są nadawane według kolejności ich powstawania. Po Ursynowie krążą opowieści ważne, ale i zabawne — wystarczy nadstawić ucha. Niestety łączy je zazwyczaj to, że są mało znane, nawet dla mieszkańców i mieszkanek, a może wręcz szczególnie dla nich.&lt;/p&gt; &lt;br&gt;&lt;p&gt;Aby prześledzić koleje losu osobliwych ursynowskich ulic, należy zapytać kogoś, kto z tą dzielnicą związany jest od dawna; kogoś, kto instynktownie wyłapuje urywki zasłyszanych opowieści i szuka tak długo, aż elementy nie wskoczą na swoje miejsce jak puzzle. Mój rozmówca, Adam Hohendorff, to polonista w jednym z ursynowskich liceów, były działacz „Solidarności” i pasjonat historii. Pamięta czasy, gdy Ursynów dopiero się budował, wie najlepiej, gdzie na Ursynowie tętni życie i dlaczego dzielnica wygląda tak, a nie inaczej. W jego opowieściach Ursynów odziera się z pozoru „sypialni Warszawy” i jawi się jako miejsce urokliwe, pełne tajemnic czekających niecierpliwie na odkrycie.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Bogucka Karolina</t>
   </si>
   <si>
-    <t xml:space="preserve">ccoewniorvewmcsof</t>
+    <t xml:space="preserve">&lt;b&gt;A CO JEŚLI NIE CHCĘ JESZCZE MIESZKAĆ W MIEŚCIE?&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;,,Ujemne saldo migracji na wieś odnotowano w grupach wieku
+20–24 i 25–29 lat. Zjawisko to wiąże się z odpływem młodych ludzi do
+miast, by kontynuować edukację lub podjąć pracę. (...) Zmiana miejsca zamieszkania następująca po ukończeniu nauki w szkole średniej wiąże się z nauką na studiach i następnie pracą w mieście, do którego młodzi dorośli migrują. Ta nierejestrowana migracja znajduje odzwierciedlenie w zmianie zameldowania najczęściej dopiero w momencie wymuszenia tego zdarzenia na przykład zakupem mieszkania.”&lt;/p&gt;
+&lt;p align=”right”&gt;,,Sytuacja demograficzna Polski. Raport 2023-2024”,&lt;br&gt;
+Główny Urząd Statystyczny&lt;/p&lt;p&gt;
+Mieszkanie w małej miejscowości wiąże się z szeregiem problemów wywołanych na przykład brakiem dostępu do edukacji wyższej czy możliwości pracy w wymarzonym miejscu. W sytuacjach, gdy rodzina jest wielodzietna, dzieci często muszą też ustalać między sobą, kto zostanie z rodzicami, żeby opiekować się nimi na starość lub przejąć ich obowiązki zawodowe. Moja rozmówczyni, Ola, mówi o swoim bracie tak: ,,No ja wiem, że on się nie wyprowadzi, on po prostu tam zostanie i będzie się opiekował rodzicami.”&lt;/p&gt;&lt;p&gt;
+W rozmowie z Olą starałam się dowiedzieć, jak wygląda perspektywa młodej dorosłej, która mieszka w Mierzeszynie, czyli we wsi oddalonej o 30 km od Gdańska. Jej życie skupia się głównie wokół  Trójmiasta. Tam ukończyła wyższą edukację, pracuje i planuje większość swoich aktywności. Rozmawiałyśmy o problemach, z jakimi boryka się osoba w jej sytuacji oraz możliwych utrudnieniach dla innych mieszkańców wsi.&lt;/p&gt;
+</t>
   </si>
   <si>
     <t xml:space="preserve">Bryg Kinga</t>
   </si>
   <si>
-    <t xml:space="preserve">fferw</t>
+    <t xml:space="preserve">&lt;b&gt;Dinozaury z sąsiedztwa&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Jedziemy na dinozaury? To pytanie najczęściej powraca w moich wspomnieniach z dzieciństwa. W mojej mikro wystawie wracam do magicznego juraparku w Głobikowej, wsi położonej w gminie Dębica. Przy schronisku Rozdzielnia Wiatrów powstała 20-metrowa wieża widokowa, a tuż obok niej w latach 2009–2010 pojawiły się pierwsze repliki dinozaurów. Pomysłodawca juraparku pozostaje anonimowy, jednak przypuszczam, że figury miały stanowić bezpłatną atrakcję dla rodzin. Dinozaury wciąż wyglądają dokładnie tak, jak zapamiętałam je z dzieciństwa. To miejsce było nie tylko przestrzenią dziecięcych zabaw, ale także spotkań w moim życiu nastoletnim i dorosłym. Długi ogon diplodoka zawsze służył do wspinania się, podobnie jak triceratops, który od początku był moim ulubionym dinozaurem. Łącznie w mini-parku stanęło pięć figur: Triceratops, Pteranodon, Diplodok, Triceratozaurus i Coelophysis. To miejsce było dla mnie przestrzenią dziecięcych fascynacji dinozaurami, ale dziś staje się także punktem wyjścia do rozmów z osobami, które wciąż tam mieszkają. Czy jurapark nadal jest odwiedzany? Czy mają wspomnienia z dzieciństwa z nim związane? Aby to sprawdzić, przeprowadziłam rozmowę z koleżanką mojej siostry (18 lat), która wciąż mieszka we wsi sąsiadującej z Głobikową.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Grzechnik Aleksandra</t>
   </si>
   <si>
-    <t xml:space="preserve">wefdghj</t>
+    <t xml:space="preserve">&lt;b&gt;Local Jesus?&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Otwock to miasto z którego pochodzę - tam się wychowałam i dorastałam. W dzieciństwie w moich rodzinnych okolicach obecne były liczne historie, miejskie legendy, zagadkowe postaci, które rozbudzały moją dziecięcą fantazję - wzbudzały ciekawość, niekiedy przestrach czy fascynację. Obiektem niniejszego wywiadu jest właśnie jedna z takich intrygujących dla mnie postaci z dzieciństwa.&lt;/p&gt;&lt;p&gt; Blisko mojego domu rodzinnego, na rogu ulicy, stał stary, drewniany dom. Na podwórku przed owym domem często można było spotkać jednego z jego mieszkańców - mężczyznę, którego potocznie nazywaliśmy Jezusem. Miał długą brodę i włosy, jednak to nie był jedyny powód, dla którego tak na niego wołaliśmy. Cechował się on także nietypowym, niezrozumiałym dla mojego dziecięcego umysłu zachowaniem – zawsze mówił w przestrzeń bądź nawoływał do przechodniów, co najmniej jakby przed nim stały tłumy, a on opowiadał im porywające historie. Z tym, że wokół nie było nikogo. Zawsze byłam niezwykle ciekawa, co dokładnie opowiada, jednak bałam się podejść bliżej, by móc go wyraźniej usłyszeć.&lt;/p&gt;&lt;p&gt;Niniejsze zajęcia stały się okazją, by powrócić do tego tematu i porozmawiać o mężczyźnie wśród lokalnej społeczności.&lt;/p&gt;&lt;p&gt;Mężczyznę do dziś można spotkać od czasu do czasu na pobliskim przystanku autobusowym. Autobusy przyjeżdżają i odjeżdżają, on jednak nigdy do nich nie wsiada.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Kacprzak Zofia</t>
   </si>
   <si>
-    <t xml:space="preserve">iktutegrfedc</t>
+    <t xml:space="preserve">&lt;b&gt;Między Ursusem a Warszawą&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Ursus - tu się wychowałam. Mam tu dziadków, którzy pracowali w Zakładach Mechanicznych, tu dorastali moi rodzice, tu chodziłam do szkoły, a dziś do szkoły chodzi tu moje rodzeństwo. Ursus jest dla mnie miejscem rodzinnym i bliskim – szczególnie teraz, gdy obserwuję starzejących się dziadków, którzy z tą dzielnicą związali całe swoje życie i przez lata pomagali mi ją poznać.&lt;/p&gt;&lt;p&gt;Od zawsze czułam, że Ursus jest czymś odrębnym od Warszawy. Do
+Warszawy z Ursusa trzeba było dojechać. Mentalnie i przestrzennie było mu
+bliżej do Piastowa (gdzie dziś mieszkają moi rodzice) niż do ścisłego centrum
+miasta. To poczucie autonomii jest dla mieszkańców szczególnie ważne.&lt;/p&gt;&lt;p&gt;Niedawno zamknięto jedno z charakterystycznych miejsc na mapie dzielnicy – Kino Arsus, siedzibę Ośrodka Kultury. Prywatny właściciel terenu odgrodził go, odcinając od mieszkańców. Kino z dnia na dzień przestało istnieć. Mimo że
+jego działalność już wcześniej wydawała się zatrzymana w czasie, myślę o
+nim z dużym sentymentem.&lt;/p&gt;&lt;p&gt;W ramach projektu magisterskiego prowadzę rozmowy z mieszkańcami, podążając tropami wspomnień związanych z Kinem Arsus – jego społeczną historią i relacjotwórczą rolą – oraz pytaniami o tożsamość: czy czujemy się bardziej Warszawiakami, czy Ursusiakami?&lt;/p&gt;&lt;p&gt; Moim rozmówcą jest Dawid Kiljański – Ursusiak, animator, etnolog, amator historii i absolwent Sztuk społecznych z 2022 roku. W projekcie dyplomowym „Ursus 2067” pracował z seniorami wokół nieistniejących dziś miejsc w dzielnicy. Część tej grupy spotkała się także ze mną, dzieląc się swoimi historiami, byli to m.in. Zdzisław Izodorczak, Hanna Murawska, Krzysztof Kwietkiewicz, Kazimierz Sudzicki.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Kopańska Marta</t>
   </si>
   <si>
-    <t xml:space="preserve">unyrtefvcds</t>
+    <t xml:space="preserve">&lt;b&gt;“Górka”&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Okolice Hali Mirowskiej i bloków za Żelazną Bramą to miejsce, w którym spędziłam większość swojego życia. W trakcie liceum przeprowadziłam się jednak na Służew, a później do Wrocławia, by na swoje lata dwudzieste znów wrócić „do siebie”. Po powrocie zauważyłam, jak bardzo ta okolica się zmieniła. Musiałam na nowo odnaleźć się wśród znanych mi bloków, ale także ponownie nauczyć się topografii mojej okolicy - nowych sklepów, knajp i wieżowców.&lt;/p&gt;&lt;p&gt;
+Moją rozmówczynią była &lt;b&gt;J&lt;/b&gt;, która - podobnie jak ja - wychowała się w tej okolicy. Wspólnie bawiłyśmy się na „Górce”, która dla większości dzieci z sąsiedztwa była ważnym punktem na mapie dzielnicy. &lt;b&gt;J&lt;/b&gt; nieprzerwanie od 25 lat obserwuje zmiany zachodzące za swoim oknem: zmieniające się bloki, sąsiadów, przystanki oraz charakter okolicy.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Kosyło Jagoda</t>
   </si>
   <si>
-    <t xml:space="preserve">unyretfcd</t>
+    <t xml:space="preserve">&lt;b&gt;Nie taka sama wieś&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;W tym roku mija dwadzieścia lat od momentu, w którym na stałe zamieszkałam w Izabelinie B - małej miejscowości pod Warszawą. Przez dwadzieścia lat obserwuję zmiany jakie zachodzą w naszej wsi - wycinanie zalesionych działek pod wielkie wille, pełno drogich samochodów przemykających ulicami. Zjawiska te postrzegałam jako postępującą gentryfikację, która stopniowo pochłaniała od lat istniejące wiejskie sklepiki i w ich miejscu “wypluwa” kolejnego Rossmanna i piątą Żabkę, odbierając wsi jej dawny, kameralny charakter&lt;/p&gt;&lt;p&gt;Postanowiłam skonfrontować moje przekonania w rozmowach z sąsiadkami, które należą do jednych z pierwszych mieszkanek Izabelina. Jednak ich opowieści znacząco zmieniły moje spojrzenie. W ich wspomnieniach dawna wieś była miejscem skromnym, słabo skomunikowanym i pozbawionym wielu udogodnień. Codzienność opierała się na pracy wokół domu i samowystarczalności. Zmiany, które przyszły wraz z rozwojem gminy i napływem nowych mieszkańców, przyniosły lepsze drogi, chodniki, sprawniejszą komunikację, sklepy, szkoły oraz system wywozu odpadów. &lt;/p&gt;&lt;p&gt;Dziś, kiedy idę tą samą ulicą, widzę jednocześnie dwie wsie. Jedną - zapisaną w mojej pamięci jako przestrzeń ciszy, drzew i małych sklepików. Drugą - opowiadaną przez sąsiadki, w której najważniejsze są asfaltowe drogi, Biedronka i autobus przyjeżdżający na czas. Ta sama przestrzeń, a różne perspektywy. I coraz trudniej rozstrzygnąć, która z nich jest najbliżej temu, czym jest Izabelin. Być może jest nimi wszystkimi.&lt;/p&gt;
+</t>
   </si>
   <si>
     <t xml:space="preserve">Kowalik Radosław</t>
   </si>
   <si>
-    <t xml:space="preserve">uytgewd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kustra Mikołaj</t>
   </si>
   <si>
-    <t xml:space="preserve">uytbewrdx</t>
+    <t xml:space="preserve">&lt;b&gt;Dwa wyjątkowe budynki. Kaspijska 1. Maltańska 6&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Od 2007 roku mieszkam w bloku na warszawskich Stegnach, który przez starszych mieszkańców osiedla przezywany jest Dolarowcem. Powstały takie dwa – większe mieszkania, plastikowe okna, rozsuwane ścianki działowe, nietypowe rozwiązania i materiały, symbol nowoczesności czasów towarzysza Gierka. Poniższy zapis jest wstępem moich działań do sąsiedzkiego historycznego projektu partycypacyjnego – na parterze bloku Maltańska 6 ustawiłem ławę, dzbanek herbaty oraz dwa fotele. Następnie zagadywałem wszystkich wchodzących i wychodzących, próbując pozbierać strzępki informacji, wspomnień, opowieści i plotek o historii dwóch wyjątkowych budynków. Po każdej rozmowie z pamięci wykonywałem notatkę z zapisaną godziną – wypowiedzi są więc w rzeczywistości parafrazami tworzonymi post factum w formie redagowanej na bieżąco.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Magdziak Zelia</t>
   </si>
   <si>
-    <t xml:space="preserve">kiu5j4htgr</t>
+    <t xml:space="preserve">&lt;b&gt;Bazarek Vinted&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Okolice pętli Metro Wilanowska stały się obszarem moich obserwacji i zainteresowania, od kiedy codziennie przesiadam się tam z autobusu na metro i z powrotem. Gdy pogoda sprzyja kilka starszych pań wystawia
+maleńkie bazarki, na którym sprzedają ubrania, książki, rośliny i inne
+drobiazgi. Kiedyś kupiłam od jednej pani roślinę doniczkową, do dzisiaj
+zdobi mój pokój. Taka forma sprzedaży kojarzy mi się z internetową
+platformą Vinted, na której prywatne osoby, mogą sprzedawać używaną
+odzież i akcesoria do domu. Dlatego ten powstający na kilka godzin
+bazarek, nazywam bazarkiem Vinted.&lt;/p&gt;&lt;p&gt;
+Ciekawią mnie historie osób sprzedających, jak wygląda ich dzień,
+czemu sprzedają... Wstępnie miałam okazję porozmawiać z jedną
+panią, niestety finalnie nie zgodziła się udzielić wywiadu na wystawę. A
+od kiedy przyszły mrozy, panie nie rozstawiają straganów, więc nie
+miałam okazji się zaprosić innej pani.&lt;/p&gt;&lt;p&gt;
+Tym sposobem moim rozmówcą został codzienny przechodzień w tym
+miejscu. Tak jak ja przesiada się z jednego środku transportu na drugi.
+Od dziewięciu lat mija bazarki, czasem się zatrzymuje, obserwuje. Dzieli
+się swoimi spostrzeżeniami.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Miszczuk Adam</t>
@@ -109,31 +135,67 @@
     <t xml:space="preserve">Prażmowska Sandra</t>
   </si>
   <si>
-    <t xml:space="preserve">kjuyrte</t>
+    <t xml:space="preserve">&lt;b&gt;Gorzko, gorzko!&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Śluby i wesela są wydarzeniami, które szczególnie mocno zapisują się w
+pamięci lokalnej społeczności, dlatego stały się dla mnie punktem
+wyjścia do opowieści o miejscu, relacjach i zmianach społecznych.
+Rozmowy z moją prababcią i mamą pozwoliły mi zobaczyć, że lokalność
+to coś żywego, zmieniającego się, ale i zakorzenionego w tych samych
+przestrzeniach. Zależało mi na poznaniu emocji i wspomnień, aby
+poprzez indywidualne historie wokół ślubów i wesel opowiedzieć o
+wspólnym doświadczeniu mieszkańców gminy Wolanów. Wybrałam ją
+jako miejsce mi bliskie, znane z osobistego doświadczenia i rodzinnych
+opowieści, co pozwoliło mi spojrzeć na lokalność z perspektywy
+wewnętrznej i międzypokoleniowej.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Rajkowska Zuzanna</t>
   </si>
   <si>
-    <t xml:space="preserve">ujyhevcd</t>
+    <t xml:space="preserve">&lt;b&gt;Powrót do lokalności&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Rozmowę z Panem Robertem przeprowadziłam z potrzeby osobistej
+ciekawości i nostalgii związanej z miejscowością Przytyk. Chciałam
+dowiedzieć się więcej o miejscu, które pomimo dziecięcych wspomnień,
+wydaje mi się zupełnie obce - zrozumieć jak wyglądało ono kiedyś oraz jak
+dziś postrzegane jest przez tych, którzy do niego wracają.&lt;/p&gt;&lt;p&gt;
+Pan Robert, 52-letni mieszkaniec Przytyka, spędził tutaj dzieciństwo i
+młodość, a następnie przez trzy dekady żył poza jego granicami - w innych
+obszarach Polski, ale również w różnych krajach Europy. Jego powrót nie jest
+sentymentalną podróżą „do korzeni”, ale konfrontacją z miejscem, które przez
+lata przestało być takie, jakim je zapamiętał. W jego słowach pojawia się
+zarówno wspomnienie dziecięcej wolności, jak i dystans wobec współczesnej
+rzeczywistości małej miejscowości.&lt;/p&gt;&lt;p&gt;
+Wybór tej historii pozwolił mi przyjrzeć się, czym dziś może być „lokalność” -
+nie jako przestrzeń geograficzna, ale ta emocjonalna i biograficzna. Choć
+Pan Robert wrócił, w jego opowieści pojawia się pragnienie mobilności,
+marzenie o życiu w kamperze, o wolności od przywiązań i rzeczy. To
+opowieść o przemijaniu, powrocie z konieczności i o próbie odnalezienia
+siebie w miejscu, które tak jak wszystko inne, zmieniło się.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Rakusa-Suszczewska Zuzanna</t>
   </si>
   <si>
-    <t xml:space="preserve">uyntrbgv</t>
+    <t xml:space="preserve">&lt;b&gt;Ekowioska- marzenie o lepszym dzisiaj? Między naturą a miastem&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;
+Osady permakulturowe są niesamowitymi miejscami pozwalającymi w nowy sposób spojrzeć na ekologię i naturę. Dla mnie pobyty w Ekowiosce przy domu Kuby Wawrzyniaka właśnie tym był. Ciekawiło mnie w jaki sposób osoby robiące wolontariat w takich miejscach patrzą te doświadczenia&lt;/p&gt;&lt;p&gt;
+Tak o osadzie mówi jej współtwórca, Kuba Wawrzyniak:  A gdzie jestem? Tak w sumie to na glinianym domku który buduje tuż przy rzece Bug i który miałem przyjemność zbudować czy może raczej zacząć budować dwa lata temu.  (...) Jest nas tutaj trochę więcej. Ja i moi znajomi. Od czterech lat tworzymy wspólnie kawałek raju i wspólne sąsiedztwo, uprawiamy własne warzywa, tworzymy przetwory, zajmujemy się kurami i budujemy kolejne domy. I to co nas łączy to wizja stworzenia wspólnego miejsca gdzie moglibyśmy spełniać swoje pasje i żyć bliżej natury. Przy okazji stając się coraz bardziej niezależnymi - zmierzamy do lokalnej wspolwystarczalnosci. (…) Stodoła zmieniła się ze stodoły gospodarczej w której stały konie, było siano i materiały budowlane. Zamieniła się w przestrzeń. Tam się dzieje tyle rzeczy, robimy obozy i mam nadzieję że będzie ich robić jeszcze więcej"&lt;/p&gt;
+</t>
   </si>
   <si>
     <t xml:space="preserve">Sadczuk Justyna</t>
   </si>
   <si>
-    <t xml:space="preserve">nuyrtb</t>
+    <t xml:space="preserve">&lt;b&gt;Targ odczarowany&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Szukam swojego miejsca. Gdzieś, gdzie jest kolorowo, gdzie nie ma rówieśników.
+W hansenowskiej architekturze Targu na Wileńskiej odnajduję nostalgię, w zabitym
+dechami pawilonie – tajemnicę, w wielobarwnych straganach – sztukę. Gdy po latach
+odwiedzam to miejsce, okazuje się, że małe biznesy upadły na rzecz sieciówek, ludzie
+patrzą wilkiem, a każde pytanie inne niż to o cenę produktów wzbudza podejrzenia –
+„A czego tak pani pyta?”.&lt;/p&gt;&lt;p&gt;
+Targ jako miejsce traci swój czar. Tracą go sprzedawcy i większość ich produktów. Magię
+zatrzymują architektura, kolory warzyw i przede wszystkim mama, moja bohaterka, która
+zabierała mnie tu na gofry. W jej wspomnieniach z dzieciństwa Targ znów odżywa,
+nabierając intensywnych, roziskrzonych barw, które mu odebrano.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Szumlas Emma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unyrgfv</t>
   </si>
 </sst>
 </file>
@@ -211,13 +273,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -239,11 +309,14 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="59.99"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -255,13 +328,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -275,17 +348,17 @@
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="104.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>40</v>
       </c>
@@ -295,293 +368,289 @@
       <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>750</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>654</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="F5" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="69.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>543</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>300</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="F6" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>4332</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>400</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>9000</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>700</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>100</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>8000</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>600</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="F10" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="183.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>1200</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>4300</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>4000</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="F12" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="126.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>2500</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" customFormat="false" ht="229.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" customFormat="false" ht="69.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>7000</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>5000</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="F15" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>4000</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>5000</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="0" t="n">
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="n">
         <v>2</v>
       </c>
     </row>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -310,7 +310,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -49,14 +49,7 @@
     <t xml:space="preserve">Bogucka Karolina</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;A CO JEŚLI NIE CHCĘ JESZCZE MIESZKAĆ W MIEŚCIE?&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;,,Ujemne saldo migracji na wieś odnotowano w grupach wieku
-20–24 i 25–29 lat. Zjawisko to wiąże się z odpływem młodych ludzi do
-miast, by kontynuować edukację lub podjąć pracę. (...) Zmiana miejsca zamieszkania następująca po ukończeniu nauki w szkole średniej wiąże się z nauką na studiach i następnie pracą w mieście, do którego młodzi dorośli migrują. Ta nierejestrowana migracja znajduje odzwierciedlenie w zmianie zameldowania najczęściej dopiero w momencie wymuszenia tego zdarzenia na przykład zakupem mieszkania.”&lt;/p&gt;
-&lt;p align=”right”&gt;,,Sytuacja demograficzna Polski. Raport 2023-2024”,&lt;br&gt;
-Główny Urząd Statystyczny&lt;/p&lt;p&gt;
-Mieszkanie w małej miejscowości wiąże się z szeregiem problemów wywołanych na przykład brakiem dostępu do edukacji wyższej czy możliwości pracy w wymarzonym miejscu. W sytuacjach, gdy rodzina jest wielodzietna, dzieci często muszą też ustalać między sobą, kto zostanie z rodzicami, żeby opiekować się nimi na starość lub przejąć ich obowiązki zawodowe. Moja rozmówczyni, Ola, mówi o swoim bracie tak: ,,No ja wiem, że on się nie wyprowadzi, on po prostu tam zostanie i będzie się opiekował rodzicami.”&lt;/p&gt;&lt;p&gt;
-W rozmowie z Olą starałam się dowiedzieć, jak wygląda perspektywa młodej dorosłej, która mieszka w Mierzeszynie, czyli we wsi oddalonej o 30 km od Gdańska. Jej życie skupia się głównie wokół  Trójmiasta. Tam ukończyła wyższą edukację, pracuje i planuje większość swoich aktywności. Rozmawiałyśmy o problemach, z jakimi boryka się osoba w jej sytuacji oraz możliwych utrudnieniach dla innych mieszkańców wsi.&lt;/p&gt;
-</t>
+    <t xml:space="preserve">&lt;b&gt;A CO JEŚLI NIE CHCĘ JESZCZE MIESZKAĆ W MIEŚCIE?&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;,,Ujemne saldo migracji na wieś odnotowano w grupach wieku 20–24 i 25–29 lat. Zjawisko to wiąże się z odpływem młodych ludzi do miast, by kontynuować edukację lub podjąć pracę. (...) Zmiana miejsca zamieszkania następująca po ukończeniu nauki w szkole średniej wiąże się z nauką na studiach i następnie pracą w mieście, do którego młodzi dorośli migrują. Ta nierejestrowana migracja znajduje odzwierciedlenie w zmianie zameldowania najczęściej dopiero w momencie wymuszenia tego zdarzenia na przykład zakupem mieszkania.”&lt;/p&gt;&lt;p align=”right”&gt;,,Sytuacja demograficzna Polski. Raport 2023-2024”,&lt;br&gt;Główny Urząd Statystyczny&lt;/p&lt;p&gt;Mieszkanie w małej miejscowości wiąże się z szeregiem problemów wywołanych na przykład brakiem dostępu do edukacji wyższej czy możliwości pracy w wymarzonym miejscu. W sytuacjach, gdy rodzina jest wielodzietna, dzieci często muszą też ustalać między sobą, kto zostanie z rodzicami, żeby opiekować się nimi na starość lub przejąć ich obowiązki zawodowe. Moja rozmówczyni, Ola, mówi o swoim bracie tak: ,,No ja wiem, że on się nie wyprowadzi, on po prostu tam zostanie i będzie się opiekował rodzicami.”&lt;/p&gt;&lt;p&gt;W rozmowie z Olą starałam się dowiedzieć, jak wygląda perspektywa młodej dorosłej, która mieszka w Mierzeszynie, czyli we wsi oddalonej o 30 km od Gdańska. Jej życie skupia się głównie wokół  Trójmiasta. Tam ukończyła wyższą edukację, pracuje i planuje większość swoich aktywności. Rozmawiałyśmy o problemach, z jakimi boryka się osoba w jej sytuacji oraz możliwych utrudnieniach dla innych mieszkańców wsi.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Bryg Kinga</t>
@@ -108,67 +101,22 @@
     <t xml:space="preserve">Magdziak Zelia</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Bazarek Vinted&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Okolice pętli Metro Wilanowska stały się obszarem moich obserwacji i zainteresowania, od kiedy codziennie przesiadam się tam z autobusu na metro i z powrotem. Gdy pogoda sprzyja kilka starszych pań wystawia
-maleńkie bazarki, na którym sprzedają ubrania, książki, rośliny i inne
-drobiazgi. Kiedyś kupiłam od jednej pani roślinę doniczkową, do dzisiaj
-zdobi mój pokój. Taka forma sprzedaży kojarzy mi się z internetową
-platformą Vinted, na której prywatne osoby, mogą sprzedawać używaną
-odzież i akcesoria do domu. Dlatego ten powstający na kilka godzin
-bazarek, nazywam bazarkiem Vinted.&lt;/p&gt;&lt;p&gt;
-Ciekawią mnie historie osób sprzedających, jak wygląda ich dzień,
-czemu sprzedają... Wstępnie miałam okazję porozmawiać z jedną
-panią, niestety finalnie nie zgodziła się udzielić wywiadu na wystawę. A
-od kiedy przyszły mrozy, panie nie rozstawiają straganów, więc nie
-miałam okazji się zaprosić innej pani.&lt;/p&gt;&lt;p&gt;
-Tym sposobem moim rozmówcą został codzienny przechodzień w tym
-miejscu. Tak jak ja przesiada się z jednego środku transportu na drugi.
-Od dziewięciu lat mija bazarki, czasem się zatrzymuje, obserwuje. Dzieli
-się swoimi spostrzeżeniami.&lt;/p&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Bazarek Vinted&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Okolice pętli Metro Wilanowska stały się obszarem moich obserwacji i zainteresowania, od kiedy codziennie przesiadam się tam z autobusu na metro i z powrotem. Gdy pogoda sprzyja kilka starszych pań wystawia maleńkie bazarki, na którym sprzedają ubrania, książki, rośliny i inne drobiazgi. Kiedyś kupiłam od jednej pani roślinę doniczkową, do dzisiaj zdobi mój pokój. Taka forma sprzedaży kojarzy mi się z internetową platformą Vinted, na której prywatne osoby, mogą sprzedawać używaną odzież i akcesoria do domu. Dlatego ten powstający na kilka godzin bazarek, nazywam bazarkiem Vinted.&lt;/p&gt;&lt;p&gt; Ciekawią mnie historie osób sprzedających, jak wygląda ich dzień, czemu sprzedają... Wstępnie miałam okazję porozmawiać z jedną panią, niestety finalnie nie zgodziła się udzielić wywiadu na wystawę. A od kiedy przyszły mrozy, panie nie rozstawiają straganów, więc nie miałam okazji się zaprosić innej pani.&lt;/p&gt;&lt;p&gt;Tym sposobem moim rozmówcą został codzienny przechodzień w tym miejscu. Tak jak ja przesiada się z jednego środku transportu na drugi. Od dziewięciu lat mija bazarki, czasem się zatrzymuje, obserwuje. Dzieli się swoimi spostrzeżeniami.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Miszczuk Adam</t>
   </si>
   <si>
-    <t xml:space="preserve">iujhyrwe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prażmowska Sandra</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Gorzko, gorzko!&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Śluby i wesela są wydarzeniami, które szczególnie mocno zapisują się w
-pamięci lokalnej społeczności, dlatego stały się dla mnie punktem
-wyjścia do opowieści o miejscu, relacjach i zmianach społecznych.
-Rozmowy z moją prababcią i mamą pozwoliły mi zobaczyć, że lokalność
-to coś żywego, zmieniającego się, ale i zakorzenionego w tych samych
-przestrzeniach. Zależało mi na poznaniu emocji i wspomnień, aby
-poprzez indywidualne historie wokół ślubów i wesel opowiedzieć o
-wspólnym doświadczeniu mieszkańców gminy Wolanów. Wybrałam ją
-jako miejsce mi bliskie, znane z osobistego doświadczenia i rodzinnych
-opowieści, co pozwoliło mi spojrzeć na lokalność z perspektywy
-wewnętrznej i międzypokoleniowej.&lt;/p&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Gorzko, gorzko!&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Śluby i wesela są wydarzeniami, które szczególnie mocno zapisują się w pamięci lokalnej społeczności, dlatego stały się dla mnie punktem wyjścia do opowieści o miejscu, relacjach i zmianach społecznych. Rozmowy z moją prababcią i mamą pozwoliły mi zobaczyć, że lokalność to coś żywego, zmieniającego się, ale i zakorzenionego w tych samych przestrzeniach. Zależało mi na poznaniu emocji i wspomnień, aby poprzez indywidualne historie wokół ślubów i wesel opowiedzieć o wspólnym doświadczeniu mieszkańców gminy Wolanów. Wybrałam ją jako miejsce mi bliskie, znane z osobistego doświadczenia i rodzinnych opowieści, co pozwoliło mi spojrzeć na lokalność z perspektywy wewnętrznej i międzypokoleniowej.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Rajkowska Zuzanna</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Powrót do lokalności&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Rozmowę z Panem Robertem przeprowadziłam z potrzeby osobistej
-ciekawości i nostalgii związanej z miejscowością Przytyk. Chciałam
-dowiedzieć się więcej o miejscu, które pomimo dziecięcych wspomnień,
-wydaje mi się zupełnie obce - zrozumieć jak wyglądało ono kiedyś oraz jak
-dziś postrzegane jest przez tych, którzy do niego wracają.&lt;/p&gt;&lt;p&gt;
-Pan Robert, 52-letni mieszkaniec Przytyka, spędził tutaj dzieciństwo i
-młodość, a następnie przez trzy dekady żył poza jego granicami - w innych
-obszarach Polski, ale również w różnych krajach Europy. Jego powrót nie jest
-sentymentalną podróżą „do korzeni”, ale konfrontacją z miejscem, które przez
-lata przestało być takie, jakim je zapamiętał. W jego słowach pojawia się
-zarówno wspomnienie dziecięcej wolności, jak i dystans wobec współczesnej
-rzeczywistości małej miejscowości.&lt;/p&gt;&lt;p&gt;
-Wybór tej historii pozwolił mi przyjrzeć się, czym dziś może być „lokalność” -
-nie jako przestrzeń geograficzna, ale ta emocjonalna i biograficzna. Choć
-Pan Robert wrócił, w jego opowieści pojawia się pragnienie mobilności,
-marzenie o życiu w kamperze, o wolności od przywiązań i rzeczy. To
-opowieść o przemijaniu, powrocie z konieczności i o próbie odnalezienia
-siebie w miejscu, które tak jak wszystko inne, zmieniło się.&lt;/p&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;Powrót do lokalności&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Rozmowę z Panem Robertem przeprowadziłam z potrzeby osobistej ciekawości i nostalgii związanej z miejscowością Przytyk. Chciałam dowiedzieć się więcej o miejscu, które pomimo dziecięcych wspomnień, wydaje mi się zupełnie obce - zrozumieć jak wyglądało ono kiedyś oraz jak dziś postrzegane jest przez tych, którzy do niego wracają.&lt;/p&gt;&lt;p&gt;Pan Robert, 52-letni mieszkaniec Przytyka, spędził tutaj dzieciństwo i młodość, a następnie przez trzy dekady żył poza jego granicami - w innych obszarach Polski, ale również w różnych krajach Europy. Jego powrót nie jest sentymentalną podróżą „do korzeni”, ale konfrontacją z miejscem, które przez lata przestało być takie, jakim je zapamiętał. W jego słowach pojawia się zarówno wspomnienie dziecięcej wolności, jak i dystans wobec współczesnej rzeczywistości małej miejscowości.&lt;/p&gt;&lt;p&gt;Wybór tej historii pozwolił mi przyjrzeć się, czym dziś może być „lokalność” - nie jako przestrzeń geograficzna, ale ta emocjonalna i biograficzna. Choć Pan Robert wrócił, w jego opowieści pojawia się pragnienie mobilności, marzenie o życiu w kamperze, o wolności od przywiązań i rzeczy. To opowieść o przemijaniu, powrocie z konieczności i o próbie odnalezienia siebie w miejscu, które tak jak wszystko inne, zmieniło się.&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Rakusa-Suszczewska Zuzanna</t>
@@ -310,7 +258,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -371,7 +319,7 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="n">
@@ -529,7 +477,7 @@
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="2" t="n">
@@ -549,9 +497,7 @@
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
@@ -567,10 +513,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>3</v>
@@ -587,10 +533,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>3</v>
@@ -607,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>2</v>
@@ -627,10 +573,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>1</v>
@@ -647,7 +593,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="n">

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -226,15 +226,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -257,23 +257,23 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="59.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="59.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -287,13 +287,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -307,13 +307,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="104.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -333,7 +333,7 @@
       <c r="B4" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -353,7 +353,7 @@
       <c r="B5" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -373,7 +373,7 @@
       <c r="B6" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -393,7 +393,7 @@
       <c r="B7" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -413,7 +413,7 @@
       <c r="B8" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -433,7 +433,7 @@
       <c r="B9" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -451,7 +451,7 @@
       <c r="B10" s="2" t="n">
         <v>600</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -471,7 +471,7 @@
       <c r="B11" s="2" t="n">
         <v>1200</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -491,7 +491,7 @@
       <c r="B12" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -509,7 +509,7 @@
       <c r="B13" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -524,12 +524,12 @@
     </row>
     <row r="14" customFormat="false" ht="229.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -549,7 +549,7 @@
       <c r="B15" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -569,7 +569,7 @@
       <c r="B16" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -589,7 +589,7 @@
       <c r="B17" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -40,10 +40,16 @@
     <t xml:space="preserve">pietro</t>
   </si>
   <si>
+    <t xml:space="preserve">zdjecie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Błaszczak Zuzanna</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Ursynowskie ulice&lt;/b&gt;&lt;br&gt;&lt;br&gt; &lt;p&gt;Ulice na Ursynowie są cichymi świadkami i ważnymi bohaterami wielu ciekawych historii. To na tych ulicach rozwijała się konspiracja, to tutaj za PRL-u gubili się taksówkarze, tutaj rodzili się ludzie ważni dla dziejów Polski, a jednak patronami tychże ulic nieraz zostają osoby przypadkowe. Nawet numery bloków są nadawane według kolejności ich powstawania. Po Ursynowie krążą opowieści ważne, ale i zabawne — wystarczy nadstawić ucha. Niestety łączy je zazwyczaj to, że są mało znane, nawet dla mieszkańców i mieszkanek, a może wręcz szczególnie dla nich.&lt;/p&gt; &lt;br&gt;&lt;p&gt;Aby prześledzić koleje losu osobliwych ursynowskich ulic, należy zapytać kogoś, kto z tą dzielnicą związany jest od dawna; kogoś, kto instynktownie wyłapuje urywki zasłyszanych opowieści i szuka tak długo, aż elementy nie wskoczą na swoje miejsce jak puzzle. Mój rozmówca, Adam Hohendorff, to polonista w jednym z ursynowskich liceów, były działacz „Solidarności” i pasjonat historii. Pamięta czasy, gdy Ursynów dopiero się budował, wie najlepiej, gdzie na Ursynowie tętni życie i dlaczego dzielnica wygląda tak, a nie inaczej. W jego opowieściach Ursynów odziera się z pozoru „sypialni Warszawy” i jawi się jako miejsce urokliwe, pełne tajemnic czekających niecierpliwie na odkrycie.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1981-boze-cialo.jpg;1996_KEN-Budowa.jpg;KEN-Bartoka.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Bogucka Karolina</t>
@@ -141,9 +147,6 @@
 zatrzymują architektura, kolory warzyw i przede wszystkim mama, moja bohaterka, która
 zabierała mnie tu na gofry. W jej wspomnieniach z dzieciństwa Targ znów odżywa,
 nabierając intensywnych, roziskrzonych barw, które mu odebrano.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szumlas Emma</t>
   </si>
 </sst>
 </file>
@@ -255,10 +258,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -285,6 +288,9 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -297,18 +303,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="104.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>300</v>
@@ -317,30 +326,30 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>3</v>
@@ -348,19 +357,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>654</v>
+        <v>1435</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>2</v>
@@ -368,19 +377,19 @@
     </row>
     <row r="6" customFormat="false" ht="69.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>543</v>
+        <v>630</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
@@ -388,56 +397,56 @@
     </row>
     <row r="7" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>4332</v>
+        <v>1200</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>700</v>
+        <v>1390</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="n">
@@ -446,39 +455,39 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="183.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>500</v>
+        <v>1030</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1200</v>
+        <v>1450</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>1</v>
@@ -486,16 +495,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>4300</v>
+        <v>1435</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="n">
@@ -504,27 +513,27 @@
     </row>
     <row r="13" customFormat="false" ht="126.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="229.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>850</v>
@@ -533,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>3</v>
@@ -544,61 +553,51 @@
     </row>
     <row r="15" customFormat="false" ht="69.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>7000</v>
+        <v>1100</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -43,19 +43,31 @@
     <t xml:space="preserve">zdjecie</t>
   </si>
   <si>
+    <t xml:space="preserve">podpis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Błaszczak Zuzanna</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Ursynowskie ulice&lt;/b&gt;&lt;br&gt;&lt;br&gt; &lt;p&gt;Ulice na Ursynowie są cichymi świadkami i ważnymi bohaterami wielu ciekawych historii. To na tych ulicach rozwijała się konspiracja, to tutaj za PRL-u gubili się taksówkarze, tutaj rodzili się ludzie ważni dla dziejów Polski, a jednak patronami tychże ulic nieraz zostają osoby przypadkowe. Nawet numery bloków są nadawane według kolejności ich powstawania. Po Ursynowie krążą opowieści ważne, ale i zabawne — wystarczy nadstawić ucha. Niestety łączy je zazwyczaj to, że są mało znane, nawet dla mieszkańców i mieszkanek, a może wręcz szczególnie dla nich.&lt;/p&gt; &lt;br&gt;&lt;p&gt;Aby prześledzić koleje losu osobliwych ursynowskich ulic, należy zapytać kogoś, kto z tą dzielnicą związany jest od dawna; kogoś, kto instynktownie wyłapuje urywki zasłyszanych opowieści i szuka tak długo, aż elementy nie wskoczą na swoje miejsce jak puzzle. Mój rozmówca, Adam Hohendorff, to polonista w jednym z ursynowskich liceów, były działacz „Solidarności” i pasjonat historii. Pamięta czasy, gdy Ursynów dopiero się budował, wie najlepiej, gdzie na Ursynowie tętni życie i dlaczego dzielnica wygląda tak, a nie inaczej. W jego opowieściach Ursynów odziera się z pozoru „sypialni Warszawy” i jawi się jako miejsce urokliwe, pełne tajemnic czekających niecierpliwie na odkrycie.&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">1981-boze-cialo.jpg;1996_KEN-Budowa.jpg;KEN-Bartoka.jpg</t>
+    <t xml:space="preserve">1996_KEN-Budowa.jpg;KEN-Bartoka.jpg;1981-boze-cialo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zdjęcie z budowy ulicy Komisji Edukacji Narodowej z 1996 roku. Ulica biegnie nad pierwszą linią metra, dlatego mogła zostać wybetonowana dopiero po otwarciu metra (1995). Archiwum &lt;a href=https://ursynow.org.pl&gt;ursynow.org.pl&lt;/a&gt;;Drogowskaz na skrzyżowaniu ulic Komisji Edukacji Narodowej i Beli Bartóka. Rok 1982, na Ursynowie powstają pierwsze bloki. Zdjęcie z archiwum &lt;a href=https://fotopolska.eu&gt;fotopolska.eu&lt;/a&gt;;Procesja na Boże Ciało w 1981 roku, w okolicach ulicy Wiolinowej. W miejscu napisu „Oto matka Twoja” dziś stoi kościół Wniebowstąpienia Pańskiego. Fot. Włodzimierz Pniewski</t>
   </si>
   <si>
     <t xml:space="preserve">Bogucka Karolina</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;A CO JEŚLI NIE CHCĘ JESZCZE MIESZKAĆ W MIEŚCIE?&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;,,Ujemne saldo migracji na wieś odnotowano w grupach wieku 20–24 i 25–29 lat. Zjawisko to wiąże się z odpływem młodych ludzi do miast, by kontynuować edukację lub podjąć pracę. (...) Zmiana miejsca zamieszkania następująca po ukończeniu nauki w szkole średniej wiąże się z nauką na studiach i następnie pracą w mieście, do którego młodzi dorośli migrują. Ta nierejestrowana migracja znajduje odzwierciedlenie w zmianie zameldowania najczęściej dopiero w momencie wymuszenia tego zdarzenia na przykład zakupem mieszkania.”&lt;/p&gt;&lt;p align=”right”&gt;,,Sytuacja demograficzna Polski. Raport 2023-2024”,&lt;br&gt;Główny Urząd Statystyczny&lt;/p&lt;p&gt;Mieszkanie w małej miejscowości wiąże się z szeregiem problemów wywołanych na przykład brakiem dostępu do edukacji wyższej czy możliwości pracy w wymarzonym miejscu. W sytuacjach, gdy rodzina jest wielodzietna, dzieci często muszą też ustalać między sobą, kto zostanie z rodzicami, żeby opiekować się nimi na starość lub przejąć ich obowiązki zawodowe. Moja rozmówczyni, Ola, mówi o swoim bracie tak: ,,No ja wiem, że on się nie wyprowadzi, on po prostu tam zostanie i będzie się opiekował rodzicami.”&lt;/p&gt;&lt;p&gt;W rozmowie z Olą starałam się dowiedzieć, jak wygląda perspektywa młodej dorosłej, która mieszka w Mierzeszynie, czyli we wsi oddalonej o 30 km od Gdańska. Jej życie skupia się głównie wokół  Trójmiasta. Tam ukończyła wyższą edukację, pracuje i planuje większość swoich aktywności. Rozmawiałyśmy o problemach, z jakimi boryka się osoba w jej sytuacji oraz możliwych utrudnieniach dla innych mieszkańców wsi.&lt;/p&gt;</t>
+    <t xml:space="preserve">&lt;b&gt;A CO JEŚLI NIE CHCĘ JESZCZE MIESZKAĆ W MIEŚCIE?&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;,,Ujemne saldo migracji na wieś odnotowano w grupach wieku 20–24 i 25–29 lat. Zjawisko to wiąże się z odpływem młodych ludzi do miast, by kontynuować edukację lub podjąć pracę. (...) Zmiana miejsca zamieszkania następująca po ukończeniu nauki w szkole średniej wiąże się z nauką na studiach i następnie pracą w mieście, do którego młodzi dorośli migrują. Ta nierejestrowana migracja znajduje odzwierciedlenie w zmianie zameldowania najczęściej dopiero w momencie wymuszenia tego zdarzenia na przykład zakupem mieszkania.”&lt;br&gt;,,Sytuacja demograficzna Polski. Raport 2023-2024”,&lt;br&gt;Główny Urząd Statystyczny&lt;/p&gt;&lt;p&gt;Mieszkanie w małej miejscowości wiąże się z szeregiem problemów wywołanych na przykład brakiem dostępu do edukacji wyższej czy możliwości pracy w wymarzonym miejscu. W sytuacjach, gdy rodzina jest wielodzietna, dzieci często muszą też ustalać między sobą, kto zostanie z rodzicami, żeby opiekować się nimi na starość lub przejąć ich obowiązki zawodowe. Moja rozmówczyni, Ola, mówi o swoim bracie tak: ,,No ja wiem, że on się nie wyprowadzi, on po prostu tam zostanie i będzie się opiekował rodzicami.”&lt;/p&gt;&lt;p&gt;W rozmowie z Olą starałam się dowiedzieć, jak wygląda perspektywa młodej dorosłej, która mieszka w Mierzeszynie, czyli we wsi oddalonej o 30 km od Gdańska. Jej życie skupia się głównie wokół  Trójmiasta. Tam ukończyła wyższą edukację, pracuje i planuje większość swoich aktywności. Rozmawiałyśmy o problemach, z jakimi boryka się osoba w jej sytuacji oraz możliwych utrudnieniach dla innych mieszkańców wsi.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karolina1.jpg;t.jpg;karolina2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozkład jazdy autobusów PKS na trasie Mierzeszyn- Gdańsk.;Zdjęcia dróg po intensywnych opadach śniegu w Mierzeszynie. Autorka: Aleksandra Sildatk “W naszej gminie są może trzy takie traktory.” – Ola ;Zdjęcia dróg po intensywnych opadach śniegu w Mierzeszynie. Autorka: Aleksandra Sildatk “W naszej gminie są może trzy takie traktory.” – Ola </t>
   </si>
   <si>
     <t xml:space="preserve">Bryg Kinga</t>
@@ -64,10 +76,49 @@
     <t xml:space="preserve">&lt;b&gt;Dinozaury z sąsiedztwa&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Jedziemy na dinozaury? To pytanie najczęściej powraca w moich wspomnieniach z dzieciństwa. W mojej mikro wystawie wracam do magicznego juraparku w Głobikowej, wsi położonej w gminie Dębica. Przy schronisku Rozdzielnia Wiatrów powstała 20-metrowa wieża widokowa, a tuż obok niej w latach 2009–2010 pojawiły się pierwsze repliki dinozaurów. Pomysłodawca juraparku pozostaje anonimowy, jednak przypuszczam, że figury miały stanowić bezpłatną atrakcję dla rodzin. Dinozaury wciąż wyglądają dokładnie tak, jak zapamiętałam je z dzieciństwa. To miejsce było nie tylko przestrzenią dziecięcych zabaw, ale także spotkań w moim życiu nastoletnim i dorosłym. Długi ogon diplodoka zawsze służył do wspinania się, podobnie jak triceratops, który od początku był moim ulubionym dinozaurem. Łącznie w mini-parku stanęło pięć figur: Triceratops, Pteranodon, Diplodok, Triceratozaurus i Coelophysis. To miejsce było dla mnie przestrzenią dziecięcych fascynacji dinozaurami, ale dziś staje się także punktem wyjścia do rozmów z osobami, które wciąż tam mieszkają. Czy jurapark nadal jest odwiedzany? Czy mają wspomnienia z dzieciństwa z nim związane? Aby to sprawdzić, przeprowadziłam rozmowę z koleżanką mojej siostry (18 lat), która wciąż mieszka we wsi sąsiadującej z Głobikową.&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">kinga1.jpg;kinga2.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Na zdjęciu znajduje się pteranodon i Coelophysis. Zdjęcie pochodzi ze strony: &lt;a href = http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&gt;http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&lt;/a&gt;;Na zdjęciu znajduje się diplodok, triceratozaurus i triceratops. Zdjęcie pochodzi ze strony: &lt;a href=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">&gt;http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Grzechnik Aleksandra</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Local Jesus?&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Otwock to miasto z którego pochodzę - tam się wychowałam i dorastałam. W dzieciństwie w moich rodzinnych okolicach obecne były liczne historie, miejskie legendy, zagadkowe postaci, które rozbudzały moją dziecięcą fantazję - wzbudzały ciekawość, niekiedy przestrach czy fascynację. Obiektem niniejszego wywiadu jest właśnie jedna z takich intrygujących dla mnie postaci z dzieciństwa.&lt;/p&gt;&lt;p&gt; Blisko mojego domu rodzinnego, na rogu ulicy, stał stary, drewniany dom. Na podwórku przed owym domem często można było spotkać jednego z jego mieszkańców - mężczyznę, którego potocznie nazywaliśmy Jezusem. Miał długą brodę i włosy, jednak to nie był jedyny powód, dla którego tak na niego wołaliśmy. Cechował się on także nietypowym, niezrozumiałym dla mojego dziecięcego umysłu zachowaniem – zawsze mówił w przestrzeń bądź nawoływał do przechodniów, co najmniej jakby przed nim stały tłumy, a on opowiadał im porywające historie. Z tym, że wokół nie było nikogo. Zawsze byłam niezwykle ciekawa, co dokładnie opowiada, jednak bałam się podejść bliżej, by móc go wyraźniej usłyszeć.&lt;/p&gt;&lt;p&gt;Niniejsze zajęcia stały się okazją, by powrócić do tego tematu i porozmawiać o mężczyźnie wśród lokalnej społeczności.&lt;/p&gt;&lt;p&gt;Mężczyznę do dziś można spotkać od czasu do czasu na pobliskim przystanku autobusowym. Autobusy przyjeżdżają i odjeżdżają, on jednak nigdy do nich nie wsiada.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ola.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodzinne zdjęcie z prywatnego archiwum. Jedna z wielu lokalnych historii, które się wydarzyły albo mogły się wydarzyć. Kogo widzimy na zdjęciu? - to pytanie pozostaje otwarte. </t>
   </si>
   <si>
     <t xml:space="preserve">Kacprzak Zofia</t>
@@ -81,6 +132,12 @@
 nim z dużym sentymentem.&lt;/p&gt;&lt;p&gt;W ramach projektu magisterskiego prowadzę rozmowy z mieszkańcami, podążając tropami wspomnień związanych z Kinem Arsus – jego społeczną historią i relacjotwórczą rolą – oraz pytaniami o tożsamość: czy czujemy się bardziej Warszawiakami, czy Ursusiakami?&lt;/p&gt;&lt;p&gt; Moim rozmówcą jest Dawid Kiljański – Ursusiak, animator, etnolog, amator historii i absolwent Sztuk społecznych z 2022 roku. W projekcie dyplomowym „Ursus 2067” pracował z seniorami wokół nieistniejących dziś miejsc w dzielnicy. Część tej grupy spotkała się także ze mną, dzieląc się swoimi historiami, byli to m.in. Zdzisław Izodorczak, Hanna Murawska, Krzysztof Kwietkiewicz, Kazimierz Sudzicki.&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">zofia1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sala kinowa Ośrodka Kultury Arsus, 2021, fot. z archiwum Arsusa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kopańska Marta</t>
   </si>
   <si>
@@ -95,9 +152,18 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">zdjecie 1.jpg; zdjecie 2.jpg;zdjecie 3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fot. Jagoda Kosyło, Dom Zofii, 2026.;fot. Jagoda Kosyło, Willa na tej samej ulicy, 2026.;fot. Jagoda Kosyło, Dom w budowie, ta sama ulica, 2026.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kowalik Radosław</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;b&gt;Klątwa czarnego psa&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Lokalność to dla mnie nie tylko miejsca, ale przede wszystkim ludzie, którzy spotykają się w swojej wrażliwości i potrzebie zmieniania świata na lepsze. Fundacja Chartoterapia to społeczność osób, które adoptowały charty lub zdecydowały się dać im dom tymczasowy, pomogły w transporcie do nowego domu albo wsparły działania fundacji, by nieść pomoc chartom w potrzebie.&lt;/p&gt;&lt;p&gt;Często nie znamy swoich imion, ale doskonale wiemy, jak nazywają się nasze psy. To bardzo zróżnicowana społeczność: mamy odmienne poglądy, pochodzimy z różnych miejsc, jesteśmy w różnym wieku. Łączy nas jednak gotowość do wspólnego działania na rzecz poprawy warunków życia potrzebujących chartów, z wykorzystaniem naszych kompetencji, narzędzi i możliwości.&lt;/p&gt;&lt;p&gt;Do rozmowy zaprosiłem Marka Dmochowskiego, prezesa Fundacji Chartoterapia. Rozmawialiśmy o działaniach pomocowych organizowanych przez fundację, ale także o wyzwaniach związanych z adopcją, między innymi o tym, że z powodu utrwalonych uprzedzeń dotyczących agresji czarne psy znacznie dłużej czekają na adopcję niż psy o jasnym umaszczeniu.&lt;/p&gt;&lt;p&gt;To również rozmowa o śmierci i żałobie, które prędzej czy później dotykają każdego opiekuna psa. Jak mówi mój rozmówca, strata ukochanego zwierzęcia bywa dla wielu osób trudniejsza niż utrata bliskiego człowieka. Międzygatunkowe więzi, które tworzymy z psami, są zjawiskiem wyjątkowym, możliwym dlatego, że psy, podobnie jak ludzie, są istotami społecznymi.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kustra Mikołaj</t>
   </si>
   <si>
@@ -110,19 +176,72 @@
     <t xml:space="preserve">&lt;b&gt;Bazarek Vinted&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Okolice pętli Metro Wilanowska stały się obszarem moich obserwacji i zainteresowania, od kiedy codziennie przesiadam się tam z autobusu na metro i z powrotem. Gdy pogoda sprzyja kilka starszych pań wystawia maleńkie bazarki, na którym sprzedają ubrania, książki, rośliny i inne drobiazgi. Kiedyś kupiłam od jednej pani roślinę doniczkową, do dzisiaj zdobi mój pokój. Taka forma sprzedaży kojarzy mi się z internetową platformą Vinted, na której prywatne osoby, mogą sprzedawać używaną odzież i akcesoria do domu. Dlatego ten powstający na kilka godzin bazarek, nazywam bazarkiem Vinted.&lt;/p&gt;&lt;p&gt; Ciekawią mnie historie osób sprzedających, jak wygląda ich dzień, czemu sprzedają... Wstępnie miałam okazję porozmawiać z jedną panią, niestety finalnie nie zgodziła się udzielić wywiadu na wystawę. A od kiedy przyszły mrozy, panie nie rozstawiają straganów, więc nie miałam okazji się zaprosić innej pani.&lt;/p&gt;&lt;p&gt;Tym sposobem moim rozmówcą został codzienny przechodzień w tym miejscu. Tak jak ja przesiada się z jednego środku transportu na drugi. Od dziewięciu lat mija bazarki, czasem się zatrzymuje, obserwuje. Dzieli się swoimi spostrzeżeniami.&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">wilanowska.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widok na przejście między wyjściem z metra a pętlą autobusową. Miejsce, gdzie panie rozkładają swoje stoiska. Pobrano z: Google Maps Street View. (2024)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miszczuk Adam</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;b&gt;Dobre z pożytecznym&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Kiedy myślę o lokalności, przychodzi mi na myśl koncept domu i sąsiedztwa - miejsca, w którym czujesz swojskość, ciepło i troskę, ale także takiego, w którym masz swoje miejsce i cel. Jesteś potrzebny innym, a oni są potrzebni tobie.&lt;/p&gt;&lt;p&gt;Taką przestrzeń znalazłem na Targowisku Bemowo, wśród osób z całymi życiami, karierami, problemami i pasjami, które w sobotnie popołudnie chętnie wyciągnęłyby się na kanapie po obfitym tygodniu. Zamiast tego, co tydzień, nie zważając na pogodę ani humory, zbierają się pod koniec godzin pracy targowiska, aby zebrać tę żywność, której nikt już nie miał zjeść.&lt;/p&gt;&lt;p&gt;Po zebraniu tego, co przekażą sprzedawcy, oglądają oczyszczają i sortują każde warzywo, owoc czy rybę, by po 16.30 spakować wszystko do prywatnych samochodów i zawieźć, wraz z pieczywem zebranym w ciągu tygodnia z piekarni, pod Urząd Dzielnicy Bielany. Tam co tydzień czeka grupa osób, również nie zważając na pogodę, gotowa na wspólną choreografię w której centrum będzie ich jutrzejszy obiad.&lt;/p&gt;&lt;p&gt;Na początku ustawiają się w półokrąg, a samochody parkują przed nimi. Następnie skrzynki pełne żywności lądują pośrodku, by jedna po drugiej zacząć przemieszczać się wzdłuż krzywej, powoli, lecz regularnie zmniejszając swoją zawartość, podczas gdy siatki i wózki po zewnętrznej stronie półokręgu ją zwiększają. Skrzynki podróżują według ustalonych zasad zwrotu oraz punktów startu, zależnych od zakończenia trasy skrzynek z podobnymi produktami w poprzednim tygodniu. Koniec tańca następuje, gdy wszystkie warzywa, ryby, chleby, płaszcze itp. znajdą swoich nowych opiekunów.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_0019-2.jpg;IMG_0051.jpg;IMG_0140.jpg;IMG_0013.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prażmowska Sandra</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Gorzko, gorzko!&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Śluby i wesela są wydarzeniami, które szczególnie mocno zapisują się w pamięci lokalnej społeczności, dlatego stały się dla mnie punktem wyjścia do opowieści o miejscu, relacjach i zmianach społecznych. Rozmowy z moją prababcią i mamą pozwoliły mi zobaczyć, że lokalność to coś żywego, zmieniającego się, ale i zakorzenionego w tych samych przestrzeniach. Zależało mi na poznaniu emocji i wspomnień, aby poprzez indywidualne historie wokół ślubów i wesel opowiedzieć o wspólnym doświadczeniu mieszkańców gminy Wolanów. Wybrałam ją jako miejsce mi bliskie, znane z osobistego doświadczenia i rodzinnych opowieści, co pozwoliło mi spojrzeć na lokalność z perspektywy wewnętrznej i międzypokoleniowej.&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">kościół drewniany.jpg;kosciol_wolanow nowy.jpg;ZDJĘCIE pradziadków.jpg;zdjęcie rodziców.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kościół pw. św. Doroty w Wolanowie, fot. współczesna. Dawne miejsce ceremonii ślubnych mieszkańców parafii Wolanów (do 1987 roku). Obecnie w zbiorach Muzeum Wsi Radomskiej. Źródło: &lt;a href=https://www.muzeum-radom.pl&gt;https://www.muzeum-radom.pl&lt;/a&gt;;Kościół pw. św. Doroty w Wolanowie, fot. współczesna. Obecna siedziba parafii i miejsce ceremonii ślubnych mieszkańców Wolanowa (od 1987 roku). Źródło: &lt;a href=https://diecezja.radom.pl&gt;https://diecezja.radom.pl&lt;/a&gt;;Portret ślubny moich pradziadków Władysławy i Stanisława,
+początek lat 60. XX wieku. Fotografia wykonana na zamówienie.;Zdjęcie ślubne moich rodziców Iwony i Artura, 1998 rok. Fotografia
+wykonana w dniu ślubu.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rajkowska Zuzanna</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Powrót do lokalności&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;Rozmowę z Panem Robertem przeprowadziłam z potrzeby osobistej ciekawości i nostalgii związanej z miejscowością Przytyk. Chciałam dowiedzieć się więcej o miejscu, które pomimo dziecięcych wspomnień, wydaje mi się zupełnie obce - zrozumieć jak wyglądało ono kiedyś oraz jak dziś postrzegane jest przez tych, którzy do niego wracają.&lt;/p&gt;&lt;p&gt;Pan Robert, 52-letni mieszkaniec Przytyka, spędził tutaj dzieciństwo i młodość, a następnie przez trzy dekady żył poza jego granicami - w innych obszarach Polski, ale również w różnych krajach Europy. Jego powrót nie jest sentymentalną podróżą „do korzeni”, ale konfrontacją z miejscem, które przez lata przestało być takie, jakim je zapamiętał. W jego słowach pojawia się zarówno wspomnienie dziecięcej wolności, jak i dystans wobec współczesnej rzeczywistości małej miejscowości.&lt;/p&gt;&lt;p&gt;Wybór tej historii pozwolił mi przyjrzeć się, czym dziś może być „lokalność” - nie jako przestrzeń geograficzna, ale ta emocjonalna i biograficzna. Choć Pan Robert wrócił, w jego opowieści pojawia się pragnienie mobilności, marzenie o życiu w kamperze, o wolności od przywiązań i rzeczy. To opowieść o przemijaniu, powrocie z konieczności i o próbie odnalezienia siebie w miejscu, które tak jak wszystko inne, zmieniło się.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4402.jpg;IMG_4401.jpg;IMG_4400.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Przytyk - widok na kościół i centralne, z lotu ptaka, rok 2014&lt;br&gt;źródło - facebook - Miasto i Gmina Przytyk;Dekoracja świetlna „Przytyk MOJE Miasto”, rok 2024,&lt;br&gt;źródło - facebook - Miasto i Gmina Przytyk;Kościół Podwyższenia Krzyża Świętego w Przytyku, rok 2024&lt;br&gt;źródło - &lt;a href=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">https://radomka.pl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">&gt;radomka.pl&lt;/a&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Rakusa-Suszczewska Zuzanna</t>
@@ -132,6 +251,12 @@
 Osady permakulturowe są niesamowitymi miejscami pozwalającymi w nowy sposób spojrzeć na ekologię i naturę. Dla mnie pobyty w Ekowiosce przy domu Kuby Wawrzyniaka właśnie tym był. Ciekawiło mnie w jaki sposób osoby robiące wolontariat w takich miejscach patrzą te doświadczenia&lt;/p&gt;&lt;p&gt;
 Tak o osadzie mówi jej współtwórca, Kuba Wawrzyniak:  A gdzie jestem? Tak w sumie to na glinianym domku który buduje tuż przy rzece Bug i który miałem przyjemność zbudować czy może raczej zacząć budować dwa lata temu.  (...) Jest nas tutaj trochę więcej. Ja i moi znajomi. Od czterech lat tworzymy wspólnie kawałek raju i wspólne sąsiedztwo, uprawiamy własne warzywa, tworzymy przetwory, zajmujemy się kurami i budujemy kolejne domy. I to co nas łączy to wizja stworzenia wspólnego miejsca gdzie moglibyśmy spełniać swoje pasje i żyć bliżej natury. Przy okazji stając się coraz bardziej niezależnymi - zmierzamy do lokalnej wspolwystarczalnosci. (…) Stodoła zmieniła się ze stodoły gospodarczej w której stały konie, było siano i materiały budowlane. Zamieniła się w przestrzeń. Tam się dzieje tyle rzeczy, robimy obozy i mam nadzieję że będzie ich robić jeszcze więcej"&lt;/p&gt;
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_9846.jpg;IMG_1416.jpg;IMG_1414.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gliniany dom Kuby fot. Zuzanna Rakusa-Suszczewska;Stodoła podczas obozu fot. Emilia Czerniawska;Balkon ogrodowy fot. Emilia Czerniawska</t>
   </si>
   <si>
     <t xml:space="preserve">Sadczuk Justyna</t>
@@ -148,6 +273,12 @@
 zabierała mnie tu na gofry. W jej wspomnieniach z dzieciństwa Targ znów odżywa,
 nabierając intensywnych, roziskrzonych barw, które mu odebrano.&lt;/p&gt;</t>
   </si>
+  <si>
+    <t xml:space="preserve">targ1a.jpg;targ4a.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasaż handlowy przy ul. Wileńskiej, Lublin 1972-1974, fot. H. Grzęda;Pasaż handlowy przy ul. Wileńskiej, Lublin 2023, fot. M. Winiarski</t>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -179,6 +310,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -224,7 +369,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -237,8 +382,16 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -258,15 +411,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="59.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,6 +444,9 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -303,21 +459,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="104.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="388" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>300</v>
@@ -326,13 +485,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,16 +511,22 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="211.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>1435</v>
       </c>
@@ -366,16 +537,22 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="69.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="685.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>630</v>
       </c>
@@ -386,13 +563,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,10 +589,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>2</v>
@@ -426,13 +609,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,9 +635,11 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F9" s="2" t="n">
         <v>1</v>
       </c>
@@ -464,16 +655,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="183.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>1030</v>
       </c>
@@ -484,13 +675,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,14 +701,19 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="126.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>1250</v>
       </c>
@@ -522,16 +724,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="229.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>1550</v>
       </c>
@@ -542,16 +750,22 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="69.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="487" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>1100</v>
       </c>
@@ -562,16 +776,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="333" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>980</v>
       </c>
@@ -582,13 +802,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,6 +826,10 @@
       <c r="F17" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" display="http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/"/>
+    <hyperlink ref="H14" r:id="rId2" display="https://radomka.pl"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -79,34 +79,7 @@
     <t xml:space="preserve">kinga1.jpg;kinga2.jpg</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Na zdjęciu znajduje się pteranodon i Coelophysis. Zdjęcie pochodzi ze strony: &lt;a href = http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&gt;http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&lt;/a&gt;;Na zdjęciu znajduje się diplodok, triceratozaurus i triceratops. Zdjęcie pochodzi ze strony: &lt;a href=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">&gt;http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&lt;/a&gt;</t>
-    </r>
+    <t xml:space="preserve">Na zdjęciu znajduje się pteranodon i Coelophysis. Zdjęcie pochodzi ze strony: &lt;a href = http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&gt;http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&lt;/a&gt;;Na zdjęciu znajduje się diplodok, triceratozaurus i triceratops. Zdjęcie pochodzi ze strony: &lt;a href=http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&gt;http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Grzechnik Aleksandra</t>
@@ -214,34 +187,7 @@
     <t xml:space="preserve">IMG_4402.jpg;IMG_4401.jpg;IMG_4400.jpg</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Przytyk - widok na kościół i centralne, z lotu ptaka, rok 2014&lt;br&gt;źródło - facebook - Miasto i Gmina Przytyk;Dekoracja świetlna „Przytyk MOJE Miasto”, rok 2024,&lt;br&gt;źródło - facebook - Miasto i Gmina Przytyk;Kościół Podwyższenia Krzyża Świętego w Przytyku, rok 2024&lt;br&gt;źródło - &lt;a href=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">https://radomka.pl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">&gt;radomka.pl&lt;/a&gt;</t>
-    </r>
+    <t xml:space="preserve">Przytyk - widok na kościół i centralne, z lotu ptaka, rok 2014&lt;br&gt;źródło - facebook - Miasto i Gmina Przytyk;Dekoracja świetlna „Przytyk MOJE Miasto”, rok 2024,&lt;br&gt;źródło - facebook - Miasto i Gmina Przytyk;Kościół Podwyższenia Krzyża Świętego w Przytyku, rok 2024&lt;br&gt;źródło - &lt;a href=https://radomka.pl&gt;radomka.pl&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Rakusa-Suszczewska Zuzanna</t>
@@ -369,7 +315,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -382,15 +328,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,8 +363,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -441,10 +391,10 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -467,19 +417,19 @@
       <c r="F2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="388" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
@@ -493,7 +443,7 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -502,7 +452,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>900</v>
+        <v>1220</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1500</v>
@@ -519,10 +469,10 @@
       <c r="F4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -545,7 +495,7 @@
       <c r="F5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -565,13 +515,13 @@
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -591,7 +541,7 @@
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="2" t="n">
@@ -611,16 +561,16 @@
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -683,10 +633,10 @@
       <c r="F11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -709,7 +659,7 @@
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -732,10 +682,10 @@
       <c r="F13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -758,10 +708,10 @@
       <c r="F14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -770,7 +720,7 @@
         <v>1100</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>300</v>
+        <v>1250</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>14</v>
@@ -778,13 +728,13 @@
       <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -804,13 +754,13 @@
       <c r="D16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -827,8 +777,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/"/>
-    <hyperlink ref="H14" r:id="rId2" display="https://radomka.pl"/>
+    <hyperlink ref="H4" r:id="rId1" display="Na zdjęciu znajduje się pteranodon i Coelophysis. Zdjęcie pochodzi ze strony: &lt;a href = http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&gt;http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&lt;/a&gt;;Na zdjęciu znajduje się diplodok, triceratozaurus i triceratops. Zdjęcie pochodzi ze strony: &lt;a href=http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&gt;http://cudaregionu.fundacja-hereditas.pl/2022/05/06/globikowa-wieza-widokowa-i-park-dinozaurow/&lt;/a&gt;"/>
+    <hyperlink ref="H14" r:id="rId2" display="Przytyk - widok na kościół i centralne, z lotu ptaka, rok 2014&lt;br&gt;źródło - facebook - Miasto i Gmina Przytyk;Dekoracja świetlna „Przytyk MOJE Miasto”, rok 2024,&lt;br&gt;źródło - facebook - Miasto i Gmina Przytyk;Kościół Podwyższenia Krzyża Świętego w Przytyku, rok 2024&lt;br&gt;źródło - &lt;a href=https://radomka.pl&gt;radomka.pl&lt;/a&gt;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -363,8 +363,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -400,10 +400,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -363,8 +363,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -400,10 +400,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>800</v>
+        <v>1380</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>1220</v>
+        <v>1000</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1500</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="6" customFormat="false" ht="685.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>630</v>
+        <v>1320</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1500</v>
@@ -663,12 +663,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="718.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>1250</v>
+        <v>630</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>12</v>

--- a/wspolrzedne.xlsx
+++ b/wspolrzedne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -123,12 +123,6 @@
   <si>
     <t xml:space="preserve">&lt;b&gt;Nie taka sama wieś&lt;/b&gt;&lt;br&gt;&lt;br&gt;&lt;p&gt;W tym roku mija dwadzieścia lat od momentu, w którym na stałe zamieszkałam w Izabelinie B - małej miejscowości pod Warszawą. Przez dwadzieścia lat obserwuję zmiany jakie zachodzą w naszej wsi - wycinanie zalesionych działek pod wielkie wille, pełno drogich samochodów przemykających ulicami. Zjawiska te postrzegałam jako postępującą gentryfikację, która stopniowo pochłaniała od lat istniejące wiejskie sklepiki i w ich miejscu “wypluwa” kolejnego Rossmanna i piątą Żabkę, odbierając wsi jej dawny, kameralny charakter&lt;/p&gt;&lt;p&gt;Postanowiłam skonfrontować moje przekonania w rozmowach z sąsiadkami, które należą do jednych z pierwszych mieszkanek Izabelina. Jednak ich opowieści znacząco zmieniły moje spojrzenie. W ich wspomnieniach dawna wieś była miejscem skromnym, słabo skomunikowanym i pozbawionym wielu udogodnień. Codzienność opierała się na pracy wokół domu i samowystarczalności. Zmiany, które przyszły wraz z rozwojem gminy i napływem nowych mieszkańców, przyniosły lepsze drogi, chodniki, sprawniejszą komunikację, sklepy, szkoły oraz system wywozu odpadów. &lt;/p&gt;&lt;p&gt;Dziś, kiedy idę tą samą ulicą, widzę jednocześnie dwie wsie. Jedną - zapisaną w mojej pamięci jako przestrzeń ciszy, drzew i małych sklepików. Drugą - opowiadaną przez sąsiadki, w której najważniejsze są asfaltowe drogi, Biedronka i autobus przyjeżdżający na czas. Ta sama przestrzeń, a różne perspektywy. I coraz trudniej rozstrzygnąć, która z nich jest najbliżej temu, czym jest Izabelin. Być może jest nimi wszystkimi.&lt;/p&gt;
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">zdjecie 1.jpg; zdjecie 2.jpg;zdjecie 3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fot. Jagoda Kosyło, Dom Zofii, 2026.;fot. Jagoda Kosyło, Willa na tej samej ulicy, 2026.;fot. Jagoda Kosyło, Dom w budowie, ta sama ulica, 2026.</t>
   </si>
   <si>
     <t xml:space="preserve">Kowalik Radosław</t>
@@ -363,8 +357,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -567,12 +561,8 @@
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -585,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>1</v>
@@ -605,10 +595,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>3</v>
@@ -625,19 +615,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,16 +641,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="718.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,19 +664,19 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,19 +690,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="487" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,19 +716,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="333" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,19 +742,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
